--- a/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
+++ b/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
@@ -3937,7 +3937,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>579138</xdr:colOff>
+      <xdr:colOff>582186</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>71638</xdr:rowOff>
     </xdr:to>
@@ -3957,7 +3957,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="9113538" cy="5215138"/>
+          <a:ext cx="9116586" cy="5215138"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
+++ b/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
@@ -11,8 +11,7 @@
     <sheet name="2024 Ridership" sheetId="2" r:id="rId2"/>
     <sheet name="Top 5 Stations 2023" sheetId="3" r:id="rId3"/>
     <sheet name="Top 5 Stations 2024" sheetId="4" r:id="rId4"/>
-    <sheet name="Hourly Chart" sheetId="5" r:id="rId5"/>
-    <sheet name="Top 10 Chart" sheetId="6" r:id="rId6"/>
+    <sheet name="Top 10 Chart" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -3936,53 +3935,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>582186</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>71638</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="hourly_ridership_chart.png"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="9116586" cy="5215138"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>518178</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>86877</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475510</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>163082</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4000,7 +3956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="9052578" cy="4468377"/>
+          <a:ext cx="10838710" cy="7211582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14228,17 +14184,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
+++ b/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
@@ -3935,8 +3935,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>475510</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>201195</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>163082</xdr:rowOff>
     </xdr:to>
@@ -3956,7 +3956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="10838710" cy="7211582"/>
+          <a:ext cx="13612395" cy="7211582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
+++ b/Source/Data/reports/MTA_Station_Ridership_Analysis.xlsx
@@ -3935,8 +3935,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>201195</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>475510</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>163082</xdr:rowOff>
     </xdr:to>
@@ -3956,7 +3956,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="609600" y="190500"/>
-          <a:ext cx="13612395" cy="7211582"/>
+          <a:ext cx="10838710" cy="7211582"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
